--- a/back/tst/perf_out_rest/perf_summary_rest.xlsx
+++ b/back/tst/perf_out_rest/perf_summary_rest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5009.171688299102</v>
+        <v>23.2221500002197</v>
       </c>
       <c r="C2" t="n">
-        <v>5014.63802134931</v>
+        <v>31.70262499916134</v>
       </c>
       <c r="D2" t="n">
-        <v>5015.06595227278</v>
+        <v>31.86660500097787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -509,7 +509,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>http://192.168.49.2:31560</t>
+          <t>http://localhost:8080</t>
         </is>
       </c>
     </row>
@@ -520,19 +520,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5008.823694799503</v>
+        <v>24.81179999886081</v>
       </c>
       <c r="C3" t="n">
-        <v>5012.912155400409</v>
+        <v>31.44659500176203</v>
       </c>
       <c r="D3" t="n">
-        <v>5013.801351080911</v>
+        <v>31.58803900485509</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>http://192.168.49.2:31560</t>
+          <t>http://localhost:8080</t>
         </is>
       </c>
     </row>
@@ -553,19 +553,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5006.65319629843</v>
+        <v>17.80924999911804</v>
       </c>
       <c r="C4" t="n">
-        <v>5007.870397847728</v>
+        <v>30.98336000693962</v>
       </c>
       <c r="D4" t="n">
-        <v>5008.075031567714</v>
+        <v>31.18971200659871</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -575,30 +575,30 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>http://192.168.49.2:31560</t>
+          <t>http://localhost:8080</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GET /api/pergunta</t>
+          <t>POST /api/usuario/login</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5007.458762802707</v>
+        <v>18.46416000043973</v>
       </c>
       <c r="C5" t="n">
-        <v>5010.011523103458</v>
+        <v>30.69741499712109</v>
       </c>
       <c r="D5" t="n">
-        <v>5011.333515823935</v>
+        <v>31.21412299733493</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -608,30 +608,30 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>http://192.168.49.2:31560</t>
+          <t>http://localhost:8080</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>POST /api/pergunta</t>
+          <t>GET /api/pergunta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5009.033669599012</v>
+        <v>11.40323999716202</v>
       </c>
       <c r="C6" t="n">
-        <v>5012.387607701021</v>
+        <v>23.70556000023498</v>
       </c>
       <c r="D6" t="n">
-        <v>5013.316736740599</v>
+        <v>24.50015199996415</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -641,27 +641,27 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>http://192.168.49.2:31560</t>
+          <t>http://localhost:8080</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MEDIA_FINAL</t>
+          <t>POST /api/pergunta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5008.228202359751</v>
+        <v>14.39130000217119</v>
       </c>
       <c r="C7" t="n">
-        <v>5011.563941080385</v>
+        <v>30.77151999896159</v>
       </c>
       <c r="D7" t="n">
-        <v>5012.318517497188</v>
+        <v>31.29006399743957</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>200</v>
@@ -674,7 +674,40 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>http://192.168.49.2:31560</t>
+          <t>http://localhost:8080</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MEDIA_FINAL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18.35031666632858</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.88451250069678</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30.27478250119505</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>http://localhost:8080</t>
         </is>
       </c>
     </row>

--- a/back/tst/perf_out_rest/perf_summary_rest.xlsx
+++ b/back/tst/perf_out_rest/perf_summary_rest.xlsx
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.2221500002197</v>
+        <v>98.61643770000228</v>
       </c>
       <c r="C2" t="n">
-        <v>31.70262499916134</v>
+        <v>136.9927118000533</v>
       </c>
       <c r="D2" t="n">
-        <v>31.86660500097787</v>
+        <v>139.074561560069</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.81179999886081</v>
+        <v>66.08481569996911</v>
       </c>
       <c r="C3" t="n">
-        <v>31.44659500176203</v>
+        <v>121.9199688498292</v>
       </c>
       <c r="D3" t="n">
-        <v>31.58803900485509</v>
+        <v>134.1492433698431</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.80924999911804</v>
+        <v>89.30107029996179</v>
       </c>
       <c r="C4" t="n">
-        <v>30.98336000693962</v>
+        <v>128.542343149968</v>
       </c>
       <c r="D4" t="n">
-        <v>31.18971200659871</v>
+        <v>130.6030094299717</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.46416000043973</v>
+        <v>86.96744300002592</v>
       </c>
       <c r="C5" t="n">
-        <v>30.69741499712109</v>
+        <v>127.0688872499704</v>
       </c>
       <c r="D5" t="n">
-        <v>31.21412299733493</v>
+        <v>134.0337334500691</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.40323999716202</v>
+        <v>84.34583050002402</v>
       </c>
       <c r="C6" t="n">
-        <v>23.70556000023498</v>
+        <v>123.9810491000185</v>
       </c>
       <c r="D6" t="n">
-        <v>24.50015199996415</v>
+        <v>124.7236290201431</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.39130000217119</v>
+        <v>81.71098880000045</v>
       </c>
       <c r="C7" t="n">
-        <v>30.77151999896159</v>
+        <v>129.7876454500738</v>
       </c>
       <c r="D7" t="n">
-        <v>31.29006399743957</v>
+        <v>135.1601986900323</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.35031666632858</v>
+        <v>84.50443099999727</v>
       </c>
       <c r="C8" t="n">
-        <v>29.88451250069678</v>
+        <v>128.0487675999856</v>
       </c>
       <c r="D8" t="n">
-        <v>30.27478250119505</v>
+        <v>132.9573959200214</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
